--- a/excel_tables_dir/exported_data.xlsx
+++ b/excel_tables_dir/exported_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,1254 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>А40-890002/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19.04.2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>НПО «Пример-2»</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4000000002</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-2»</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5000000002</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>+79163839009</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>example_2@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>А40-890003/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20.04.2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Лимитед</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>НПО «Пример-3»</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4000000003</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-3»</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5000000003</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>+79091507080</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>example_3@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>А40-890004/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21.04.2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>и партнеры</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>НПО «Пример-4»</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4000000004</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-4»</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5000000004</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>+79859910023</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>example_4@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>А40-890007/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24.04.2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>НПО «Пример-7»</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4000000007</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-7»</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5000000007</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>+79257937137</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>example_7@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>А40-890008/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25.04.2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>НПО «Пример-8»</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4000000008</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-8»</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5000000008</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>+79165023939</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>example_8@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>А40-890010/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17.05.2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>и партнеры</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>НПО «Пример-10»</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4000000010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-10»</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5000000010</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>+79096689988</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>example_10@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>А40-890016/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23.04.2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>и партнеры</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>НПО «Пример-16»</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4000000016</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-16»</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5000000016</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+79255500066</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>example_16@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>А40-890020/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17.04.2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>НПО «Пример-20»</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4000000020</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-20»</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5000000020</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+79296191687</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>example_20@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>А40-890022/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19.05.2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>и партнеры</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>НПО «Пример-22»</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4000000022</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-22»</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5000000022</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+79262711111</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>example_22@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>А40-890027/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24.04.2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Лимитед</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>НПО «Пример-27»</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4000000027</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-27»</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5000000027</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+79251881888</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>example_27@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>А40-890029/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26.04.2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Инк</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>НПО «Пример-29»</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4000000029</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-29»</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5000000029</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+79039605463</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>example_29@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>А40-890032/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>19.04.2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>НПО «Пример-32»</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4000000032</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-32»</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5000000032</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+79581007228</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>example_32@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>А40-890034/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21.05.2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>и партнеры</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>НПО «Пример-34»</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4000000034</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-34»</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5000000034</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>+79913326977</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>example_34@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>А40-890038/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25.04.2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>НПО «Пример-38»</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4000000038</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-38»</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5000000038</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>+79253933260</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>example_38@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>А40-890043/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20.04.2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Групп</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>НПО «Пример-43»</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4000000043</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-43»</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5000000043</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>+79268505150</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>example_43@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>А40-890045/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22.04.2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Лимитед</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>НПО «Пример-45»</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4000000045</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-45»</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5000000045</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>+79296542244</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>example_45@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>А40-890046/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.05.2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>и партнеры</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>НПО «Пример-46»</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4000000046</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-46»</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5000000046</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>+79296539933</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>example_46@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>А40-890047/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24.05.2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Инк</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>НПО «Пример-47»</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4000000047</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-47»</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5000000047</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>+79779375395</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>example_47@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>А40-890050/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17.04.2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Инкорпорэйтед</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>НПО «Пример-50»</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4000000050</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-50»</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5000000050</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>+79251750750</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>example_50@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>А40-890051/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18.04.2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Лимитед</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>НПО «Пример-51»</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4000000051</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-51»</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5000000051</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>+79160223623</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>example_51@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>А40-890053/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20.04.2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Инк</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>НПО «Пример-53»</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4000000053</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-53»</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5000000053</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>+79254889101</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>example_53@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>А40-890066/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23.04.2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>НПО «Пример-66»</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4000000066</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-66»</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5000000066</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>+79166822984</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>example_66@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>А40-890000/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17.04.2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Лтд</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>НПО «Пример-0»</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4000000000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-0»</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5000000000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>+79686292785</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>example_0@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>А40-890015/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22.04.2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>civil</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Лимитед</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>НПО «Пример-15»</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4000000015</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>АО «Ответчик-15»</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5000000015</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>+79197767971</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>example_15@mail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
